--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56272</v>
+        <v>29780</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nathan Dias</t>
+          <t>Isis da Luz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>10988.38</v>
+        <v>2597.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14672</v>
+        <v>89503</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leonardo Pereira</t>
+          <t>Manuela Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>7202.1</v>
+        <v>10500.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42295</v>
+        <v>96106</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Mendes</t>
+          <t>Luiz Otávio da Paz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>4312.12</v>
+        <v>7802.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77845</v>
+        <v>85469</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Emanuella Porto</t>
+          <t>André Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,19 +584,19 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>7321.46</v>
+        <v>4642.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89945</v>
+        <v>49419</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Júlia Almeida</t>
+          <t>Luiz Gustavo Vieira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>3723.13</v>
+        <v>3666.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>580</v>
+        <v>36453</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Moreira</t>
+          <t>Rodrigo Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>9249.32</v>
+        <v>5995.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5785</v>
+        <v>32424</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitor Gabriel da Cunha</t>
+          <t>Clarice Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>10990.16</v>
+        <v>5625.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57904</v>
+        <v>30437</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabrielly Pires</t>
+          <t>Marcela Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>10313.7</v>
+        <v>4693.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2873</v>
+        <v>24513</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thales Lopes</t>
+          <t>Laís Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>11484.13</v>
+        <v>7835.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1100</v>
+        <v>69410</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Otávio da Cunha</t>
+          <t>Luiz Felipe Oliveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>6114.83</v>
+        <v>10033.98</v>
       </c>
     </row>
   </sheetData>
